--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70711F-B49B-4BFD-8F4B-8D60C198272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB2E45-B90C-4C13-BA06-D69453751227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="388">
   <si>
     <t>Medlem</t>
   </si>
@@ -1203,6 +1203,15 @@
   </si>
   <si>
     <t>Måndag 14 februari</t>
+  </si>
+  <si>
+    <t>Tisdag 15 februari</t>
+  </si>
+  <si>
+    <t>Onsdag 16 februari</t>
+  </si>
+  <si>
+    <t>Fredag 18 februari</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D368"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368:B368"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4509,12 +4518,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B368" s="4" t="s">
-        <v>12</v>
+      <c r="B368" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB2E45-B90C-4C13-BA06-D69453751227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B0FFD-DB7C-458A-9029-18FEF011878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="390">
   <si>
     <t>Medlem</t>
   </si>
@@ -1212,6 +1212,12 @@
   </si>
   <si>
     <t>Fredag 18 februari</t>
+  </si>
+  <si>
+    <t>Måndag 21</t>
+  </si>
+  <si>
+    <t>Onsdag 23 februari</t>
   </si>
 </sst>
 </file>
@@ -1657,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B369" sqref="B369"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A373" sqref="A372:B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4550,6 +4556,22 @@
         <v>69</v>
       </c>
     </row>
+    <row r="372" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A372" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B0FFD-DB7C-458A-9029-18FEF011878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39E437E-114D-443D-9532-10E2D599D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="391">
   <si>
     <t>Medlem</t>
   </si>
@@ -1218,6 +1218,9 @@
   </si>
   <si>
     <t>Onsdag 23 februari</t>
+  </si>
+  <si>
+    <t>Torsdag 24 februari</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D373"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A367" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A373" sqref="A372:B373"/>
+      <selection activeCell="A374" sqref="A374:B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4572,6 +4575,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39E437E-114D-443D-9532-10E2D599D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936A9C8-9171-44BB-BE93-333639B81F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="392">
   <si>
     <t>Medlem</t>
   </si>
@@ -1221,6 +1221,9 @@
   </si>
   <si>
     <t>Torsdag 24 februari</t>
+  </si>
+  <si>
+    <t>Lördag 26 februari</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A367" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A374" sqref="A374:B374"/>
+      <selection activeCell="B375" sqref="A375:B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4583,6 +4586,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936A9C8-9171-44BB-BE93-333639B81F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C247C-E9FB-4AEF-AFE1-04CACC40F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="392">
   <si>
     <t>Medlem</t>
   </si>
@@ -1669,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B375" sqref="A375:B375"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A378" sqref="A376:B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4594,6 +4594,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C247C-E9FB-4AEF-AFE1-04CACC40F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0581DC87-BEE4-48F6-9778-6C9CCF9E1A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="392">
   <si>
     <t>Medlem</t>
   </si>
@@ -1669,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A378" sqref="A376:B378"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A382" sqref="A379:B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4618,6 +4618,38 @@
         <v>12</v>
       </c>
     </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0581DC87-BEE4-48F6-9778-6C9CCF9E1A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD0DFB-80AE-4964-9488-50C4479766F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="392">
   <si>
     <t>Medlem</t>
   </si>
@@ -1370,6 +1370,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A382" sqref="A379:B382"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B383" sqref="A383:B383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4650,6 +4654,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD0DFB-80AE-4964-9488-50C4479766F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD379D27-0FCD-4009-A23B-13D38D6AEBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="393">
   <si>
     <t>Medlem</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>Lördag 26 februari</t>
+  </si>
+  <si>
+    <t>Onsdag 15 februari</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1373,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1673,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A374" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B383" sqref="A383:B383"/>
+      <selection activeCell="A384" sqref="A384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4662,6 +4661,14 @@
         <v>101</v>
       </c>
     </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD379D27-0FCD-4009-A23B-13D38D6AEBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE056E2F-5E6B-430C-821F-A45CD405C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="394">
   <si>
     <t>Medlem</t>
   </si>
@@ -1226,7 +1226,10 @@
     <t>Lördag 26 februari</t>
   </si>
   <si>
-    <t>Onsdag 15 februari</t>
+    <t>Torsdag 17 februari</t>
+  </si>
+  <si>
+    <t>Lördag 19 februari</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D384"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A384" sqref="A384"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B386" sqref="A385:B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4662,11 +4665,27 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A384" s="4" t="s">
+      <c r="A384" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B384" s="4" t="s">
-        <v>15</v>
+      <c r="B385" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE056E2F-5E6B-430C-821F-A45CD405C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543EA7D7-F443-46D7-A7C2-903EAD1B70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="405">
   <si>
     <t>Medlem</t>
   </si>
@@ -1214,9 +1214,6 @@
     <t>Fredag 18 februari</t>
   </si>
   <si>
-    <t>Måndag 21</t>
-  </si>
-  <si>
     <t>Onsdag 23 februari</t>
   </si>
   <si>
@@ -1226,10 +1223,46 @@
     <t>Lördag 26 februari</t>
   </si>
   <si>
-    <t>Torsdag 17 februari</t>
-  </si>
-  <si>
-    <t>Lördag 19 februari</t>
+    <t>Måndag 21 februari</t>
+  </si>
+  <si>
+    <t>Onsdag 2 mars</t>
+  </si>
+  <si>
+    <t>Torsdag 3 mars</t>
+  </si>
+  <si>
+    <t>Lördag 5 mars</t>
+  </si>
+  <si>
+    <t>Tisdag 8 mars</t>
+  </si>
+  <si>
+    <t>Onsdag 9 mars</t>
+  </si>
+  <si>
+    <t>Torsdag 10 mars</t>
+  </si>
+  <si>
+    <t>Lördag 12 mars</t>
+  </si>
+  <si>
+    <t>Måndag 14 mars</t>
+  </si>
+  <si>
+    <t>Onsdag 16 mars</t>
+  </si>
+  <si>
+    <t>Torsdag 17 mars</t>
+  </si>
+  <si>
+    <t>Lördag 19 mars</t>
+  </si>
+  <si>
+    <t>Måndag 21 mars</t>
+  </si>
+  <si>
+    <t>Torsdag 24 mars</t>
   </si>
 </sst>
 </file>
@@ -1675,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B386" sqref="A385:B386"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B388" sqref="A387:B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4570,7 +4603,7 @@
     </row>
     <row r="372" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>361</v>
@@ -4578,7 +4611,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>15</v>
@@ -4586,7 +4619,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>12</v>
@@ -4594,7 +4627,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>12</v>
@@ -4602,7 +4635,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>15</v>
@@ -4610,7 +4643,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>12</v>
@@ -4618,7 +4651,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>12</v>
@@ -4626,7 +4659,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>7</v>
@@ -4634,7 +4667,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>15</v>
@@ -4642,7 +4675,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>12</v>
@@ -4650,7 +4683,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>12</v>
@@ -4658,7 +4691,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>101</v>
@@ -4666,7 +4699,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="8" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>15</v>
@@ -4674,7 +4707,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>12</v>
@@ -4682,9 +4715,25 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B386" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B388" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543EA7D7-F443-46D7-A7C2-903EAD1B70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B298D2-97FD-4092-9167-13ECDB4E9634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="408">
   <si>
     <t>Medlem</t>
   </si>
@@ -1263,6 +1263,15 @@
   </si>
   <si>
     <t>Torsdag 24 mars</t>
+  </si>
+  <si>
+    <t>Tisdag 28 mars</t>
+  </si>
+  <si>
+    <t>Torsdag 30 mars</t>
+  </si>
+  <si>
+    <t>Lördag 2 april</t>
   </si>
 </sst>
 </file>
@@ -1708,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A383" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B388" sqref="A387:B388"/>
+      <selection activeCell="B391" sqref="A389:B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4737,6 +4746,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B298D2-97FD-4092-9167-13ECDB4E9634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EDFDC1-A9AD-4CA6-9EA2-6895797D0B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="421">
   <si>
     <t>Medlem</t>
   </si>
@@ -1272,6 +1272,46 @@
   </si>
   <si>
     <t>Lördag 2 april</t>
+  </si>
+  <si>
+    <t>Måndag 4 april</t>
+  </si>
+  <si>
+    <t>Ej Step Up
+Zumba + Sh'Bam</t>
+  </si>
+  <si>
+    <t>Torsdag 7 april</t>
+  </si>
+  <si>
+    <t>Lördag 9 april</t>
+  </si>
+  <si>
+    <t>Måndag 11 april</t>
+  </si>
+  <si>
+    <t>Torsdag 14 april</t>
+  </si>
+  <si>
+    <t>Torsdag 21 april</t>
+  </si>
+  <si>
+    <t>Lördag 23 april</t>
+  </si>
+  <si>
+    <t>Måndag 25 april</t>
+  </si>
+  <si>
+    <t>Torsdag 28 april</t>
+  </si>
+  <si>
+    <t>Onsdag 27 april</t>
+  </si>
+  <si>
+    <t>Lördag 30 april</t>
+  </si>
+  <si>
+    <t>Måndag 2 maj</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B391" sqref="A389:B391"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4770,6 +4810,102 @@
         <v>12</v>
       </c>
     </row>
+    <row r="392" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A392" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A396" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A397" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A399" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A401" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A403" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EDFDC1-A9AD-4CA6-9EA2-6895797D0B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00CFB7-D0A1-4301-B2C9-0E8B23A4BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="431">
   <si>
     <t>Medlem</t>
   </si>
@@ -1312,6 +1312,36 @@
   </si>
   <si>
     <t>Måndag 2 maj</t>
+  </si>
+  <si>
+    <t>Måndag 16 maj</t>
+  </si>
+  <si>
+    <t>Torsdag 19 maj</t>
+  </si>
+  <si>
+    <t>Lördag 21 maj</t>
+  </si>
+  <si>
+    <t>Måndag 23 maj</t>
+  </si>
+  <si>
+    <t>Torsdag 26 maj</t>
+  </si>
+  <si>
+    <t>Lördag 28 maj</t>
+  </si>
+  <si>
+    <t>Måndag 30 maj</t>
+  </si>
+  <si>
+    <t>Lördag 11 juni</t>
+  </si>
+  <si>
+    <t>Torsdag 16 juni</t>
+  </si>
+  <si>
+    <t>Lördag 18 juni</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4906,6 +4936,86 @@
         <v>361</v>
       </c>
     </row>
+    <row r="404" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A404" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A405" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A407" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A408" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A410" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Balanze.xlsx
+++ b/Balanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00CFB7-D0A1-4301-B2C9-0E8B23A4BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003AB270-F562-4B55-A016-E1E0073069E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D01ECE94-6209-435C-966B-5C55D2C3301F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="439">
   <si>
     <t>Medlem</t>
   </si>
@@ -1342,6 +1342,31 @@
   </si>
   <si>
     <t>Lördag 18 juni</t>
+  </si>
+  <si>
+    <t>Måndag 20 juni</t>
+  </si>
+  <si>
+    <t>BodyPump
+Step Up</t>
+  </si>
+  <si>
+    <t>Måndag 27 juni</t>
+  </si>
+  <si>
+    <t>Torsdag 30 juni</t>
+  </si>
+  <si>
+    <t>BodyPump Åsa</t>
+  </si>
+  <si>
+    <t>Lördag 2 juli</t>
+  </si>
+  <si>
+    <t>Måndag 4 juli</t>
+  </si>
+  <si>
+    <t>Torsdag 7 juli</t>
   </si>
 </sst>
 </file>
@@ -1787,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D2A-0F0D-4937-B729-D144AD5618EA}">
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4989,7 +5014,7 @@
         <v>427</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
@@ -5013,6 +5038,54 @@
         <v>430</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A414" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B419" s="4" t="s">
         <v>12</v>
       </c>
     </row>
